--- a/US/data/BTS/TRPT/TVT_historical - Urban - Annual.xlsx
+++ b/US/data/BTS/TRPT/TVT_historical - Urban - Annual.xlsx
@@ -633,10 +633,10 @@
         <v>482160</v>
       </c>
       <c r="AG2" t="n">
-        <v>557712</v>
+        <v>557492</v>
       </c>
       <c r="AH2" t="n">
-        <v>42122</v>
+        <v>133073</v>
       </c>
     </row>
     <row r="3">
@@ -739,10 +739,10 @@
         <v>994265</v>
       </c>
       <c r="AG3" t="n">
-        <v>1121762</v>
+        <v>1121487</v>
       </c>
       <c r="AH3" t="n">
-        <v>85186</v>
+        <v>266027</v>
       </c>
     </row>
     <row r="4">
@@ -845,10 +845,10 @@
         <v>477340</v>
       </c>
       <c r="AG4" t="n">
-        <v>539890</v>
+        <v>539836</v>
       </c>
       <c r="AH4" t="n">
-        <v>41416</v>
+        <v>128656</v>
       </c>
     </row>
     <row r="5">
@@ -951,10 +951,10 @@
         <v>1953765</v>
       </c>
       <c r="AG5" t="n">
-        <v>2219364</v>
+        <v>2218816</v>
       </c>
       <c r="AH5" t="n">
-        <v>168724</v>
+        <v>527756</v>
       </c>
     </row>
   </sheetData>

--- a/US/data/BTS/TRPT/TVT_historical - Urban - Annual.xlsx
+++ b/US/data/BTS/TRPT/TVT_historical - Urban - Annual.xlsx
@@ -636,7 +636,7 @@
         <v>557492</v>
       </c>
       <c r="AH2" t="n">
-        <v>133073</v>
+        <v>179263</v>
       </c>
     </row>
     <row r="3">
@@ -742,7 +742,7 @@
         <v>1121487</v>
       </c>
       <c r="AH3" t="n">
-        <v>266027</v>
+        <v>357809</v>
       </c>
     </row>
     <row r="4">
@@ -848,7 +848,7 @@
         <v>539836</v>
       </c>
       <c r="AH4" t="n">
-        <v>128656</v>
+        <v>173726</v>
       </c>
     </row>
     <row r="5">
@@ -954,7 +954,7 @@
         <v>2218816</v>
       </c>
       <c r="AH5" t="n">
-        <v>527756</v>
+        <v>710798</v>
       </c>
     </row>
   </sheetData>
